--- a/level 3/hackerrank - phase 3-algorithms-dynamic-programming.xlsx
+++ b/level 3/hackerrank - phase 3-algorithms-dynamic-programming.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="66645" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="67605" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="level 3 - dynamic-programming" sheetId="14" r:id="rId1"/>
@@ -3811,10 +3811,7 @@
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G142" s="8"/>
       <c r="I142" s="14"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3822,10 +3819,7 @@
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G143" s="8"/>
       <c r="I143" s="14"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,10 +3827,7 @@
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G144" s="8"/>
       <c r="I144" s="14"/>
     </row>
     <row r="145" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3844,10 +3835,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G145" s="8"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3855,10 +3843,7 @@
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G146" s="8"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3866,10 +3851,7 @@
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G147" s="8"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3877,10 +3859,7 @@
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G148" s="8"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3888,10 +3867,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G149" s="8"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3899,270 +3875,189 @@
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G150" s="8"/>
     </row>
     <row r="151" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G151" s="8"/>
     </row>
     <row r="152" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="8">
-        <f>SUM(C173:F173)</f>
-        <v>0</v>
-      </c>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G176" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
